--- a/nop-record/src/test/resources/_vfs/test/record/test.record-file.xlsx
+++ b/nop-record/src/test/resources/_vfs/test/record/test.record-file.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-record\src\test\resources\_vfs\test\record\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4404FE1-1285-423F-AA0A-C1717EFD90FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A52D1A-BBB5-4306-B2F6-8F7364AB3AA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="2" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
@@ -198,10 +198,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0x0D0A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>UTF-8</t>
   </si>
   <si>
@@ -239,6 +235,10 @@
   </si>
   <si>
     <t>是否左填充</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EOL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -786,7 +786,7 @@
         <v>30</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G1" s="16"/>
       <c r="H1" s="9"/>
@@ -855,7 +855,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="20"/>
@@ -1218,7 +1218,7 @@
         <v>37</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>35</v>
@@ -1235,7 +1235,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>26</v>
@@ -1256,7 +1256,7 @@
         <v>29</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
@@ -1300,7 +1300,7 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1321,7 +1321,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C1" s="25"/>
       <c r="D1" s="25"/>
@@ -1455,7 +1455,7 @@
         <v>13</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>37</v>
@@ -1510,10 +1510,10 @@
       <c r="C9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="3">
-        <v>2</v>
-      </c>
-      <c r="E9" s="4"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="F9" s="3" t="s">
         <v>34</v>
       </c>
@@ -1524,9 +1524,7 @@
       <c r="K9" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="L9" s="4" t="s">
-        <v>42</v>
-      </c>
+      <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="3"/>
     </row>
@@ -1589,7 +1587,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C1" s="25"/>
       <c r="D1" s="25"/>
@@ -1734,7 +1732,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>26</v>
@@ -1753,7 +1751,7 @@
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L8" s="4"/>
       <c r="M8" s="3"/>
